--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>804.9033965825712</v>
+        <v>2317.702025425924</v>
       </c>
       <c r="R2">
-        <v>3219.613586330285</v>
+        <v>9270.808101703695</v>
       </c>
       <c r="S2">
-        <v>0.109012437336549</v>
+        <v>0.1431091046251624</v>
       </c>
       <c r="T2">
-        <v>0.0645557847047229</v>
+        <v>0.08701294273696528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>192.447698612554</v>
+        <v>355.9685072351274</v>
       </c>
       <c r="R3">
-        <v>1154.686191675324</v>
+        <v>2135.811043410765</v>
       </c>
       <c r="S3">
-        <v>0.02606423674522531</v>
+        <v>0.02197967373990325</v>
       </c>
       <c r="T3">
-        <v>0.02315236632985861</v>
+        <v>0.02004606308085771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H4">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I4">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J4">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>36.29168607424801</v>
+        <v>150.2487438882833</v>
       </c>
       <c r="R4">
-        <v>217.750116445488</v>
+        <v>901.4924633296999</v>
       </c>
       <c r="S4">
-        <v>0.004915180095902126</v>
+        <v>0.009277276790987037</v>
       </c>
       <c r="T4">
-        <v>0.004366061100116511</v>
+        <v>0.00846112994994447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>88.70571196861002</v>
+        <v>219.7706377235988</v>
       </c>
       <c r="R5">
-        <v>354.8228478744401</v>
+        <v>879.082550894395</v>
       </c>
       <c r="S5">
-        <v>0.01201389621217739</v>
+        <v>0.01356998390754971</v>
       </c>
       <c r="T5">
-        <v>0.007114477176066058</v>
+        <v>0.008250797430267435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H6">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I6">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J6">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>580.2805951333455</v>
+        <v>4053.515371372906</v>
       </c>
       <c r="R6">
-        <v>3481.683570800073</v>
+        <v>24321.09222823744</v>
       </c>
       <c r="S6">
-        <v>0.07859055171486019</v>
+        <v>0.2502888417137684</v>
       </c>
       <c r="T6">
-        <v>0.06981049401730378</v>
+        <v>0.2282702631895889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H7">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I7">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J7">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>51.76862189444001</v>
+        <v>43.2494627418225</v>
       </c>
       <c r="R7">
-        <v>310.6117313666401</v>
+        <v>259.496776450935</v>
       </c>
       <c r="S7">
-        <v>0.007011305548253093</v>
+        <v>0.002670486464869925</v>
       </c>
       <c r="T7">
-        <v>0.006228009517043026</v>
+        <v>0.002435556631314896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>1642.947251395262</v>
+        <v>2557.635227163995</v>
       </c>
       <c r="R8">
-        <v>9857.68350837157</v>
+        <v>15345.81136298397</v>
       </c>
       <c r="S8">
-        <v>0.2225132668720304</v>
+        <v>0.1579240486058382</v>
       </c>
       <c r="T8">
-        <v>0.1976543076335653</v>
+        <v>0.1440310478580837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>392.819087129301</v>
@@ -1013,10 +1013,10 @@
         <v>3535.371784163709</v>
       </c>
       <c r="S9">
-        <v>0.05320162183697579</v>
+        <v>0.02425505402421915</v>
       </c>
       <c r="T9">
-        <v>0.07088698492223705</v>
+        <v>0.03318190811788972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J10">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>74.07761743501202</v>
+        <v>165.80279776698</v>
       </c>
       <c r="R10">
-        <v>666.698556915108</v>
+        <v>1492.22517990282</v>
       </c>
       <c r="S10">
-        <v>0.01003273394417423</v>
+        <v>0.01023767924973829</v>
       </c>
       <c r="T10">
-        <v>0.01336783043962033</v>
+        <v>0.01400556485530971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J11">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>181.0637230264651</v>
+        <v>242.5217386755645</v>
       </c>
       <c r="R11">
-        <v>1086.38233815879</v>
+        <v>1455.130432053387</v>
       </c>
       <c r="S11">
-        <v>0.02452244312068813</v>
+        <v>0.014974776089959</v>
       </c>
       <c r="T11">
-        <v>0.02178282034432867</v>
+        <v>0.01365740500397251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J12">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>1184.453206260678</v>
+        <v>4473.143481750581</v>
       </c>
       <c r="R12">
-        <v>10660.0788563461</v>
+        <v>40258.29133575522</v>
       </c>
       <c r="S12">
-        <v>0.1604169288808821</v>
+        <v>0.2761992488726273</v>
       </c>
       <c r="T12">
-        <v>0.213742965462518</v>
+        <v>0.3778518938432552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J13">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>105.66872423586</v>
+        <v>47.72673460647901</v>
       </c>
       <c r="R13">
-        <v>951.0185181227403</v>
+        <v>429.5406114583111</v>
       </c>
       <c r="S13">
-        <v>0.01431128906661666</v>
+        <v>0.00294694062536395</v>
       </c>
       <c r="T13">
-        <v>0.01906866928590422</v>
+        <v>0.004031535570362477</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H14">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I14">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>1.003569165902333</v>
+        <v>0.147641395948</v>
       </c>
       <c r="R14">
-        <v>6.021414995414001</v>
+        <v>0.8858483756880001</v>
       </c>
       <c r="S14">
-        <v>0.00013591882115955</v>
+        <v>9.11628317529063E-06</v>
       </c>
       <c r="T14">
-        <v>0.0001207341066369384</v>
+        <v>8.314299373018909E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H15">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I15">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>0.2399475231393333</v>
+        <v>0.02267577399733333</v>
       </c>
       <c r="R15">
-        <v>2.159527708254</v>
+        <v>0.204081965976</v>
       </c>
       <c r="S15">
-        <v>3.249739588793419E-05</v>
+        <v>1.40014103531905E-06</v>
       </c>
       <c r="T15">
-        <v>4.330022906780821E-05</v>
+        <v>1.915450327987443E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H16">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I16">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.045249178072</v>
+        <v>0.009571089831111112</v>
       </c>
       <c r="R16">
-        <v>0.407242602648</v>
+        <v>0.08613980848</v>
       </c>
       <c r="S16">
-        <v>6.128341873133372E-06</v>
+        <v>5.909776498407282E-07</v>
       </c>
       <c r="T16">
-        <v>8.165534488596966E-06</v>
+        <v>8.084816491095303E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H17">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I17">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.1106000021233333</v>
+        <v>0.01399974776133333</v>
       </c>
       <c r="R17">
-        <v>0.6636000127400001</v>
+        <v>0.08399848656800001</v>
       </c>
       <c r="S17">
-        <v>1.497915880599122E-05</v>
+        <v>8.644300885634141E-07</v>
       </c>
       <c r="T17">
-        <v>1.330570219183444E-05</v>
+        <v>7.883838627174221E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H18">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I18">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>0.7235051005124445</v>
+        <v>0.2582155347671112</v>
       </c>
       <c r="R18">
-        <v>6.511545904612001</v>
+        <v>2.323939812904</v>
       </c>
       <c r="S18">
-        <v>9.798822413615625E-05</v>
+        <v>1.594380708798748E-05</v>
       </c>
       <c r="T18">
-        <v>0.000130561616865388</v>
+        <v>2.181178163176616E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H19">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I19">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.06454612182666668</v>
+        <v>0.002755061256</v>
       </c>
       <c r="R19">
-        <v>0.5809150964400001</v>
+        <v>0.024795551304</v>
       </c>
       <c r="S19">
-        <v>8.741831741326161E-06</v>
+        <v>1.701143396382802E-07</v>
       </c>
       <c r="T19">
-        <v>1.164780458646533E-05</v>
+        <v>2.327233895985774E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H20">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I20">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J20">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>170.723857987371</v>
+        <v>375.96966740085</v>
       </c>
       <c r="R20">
-        <v>682.8954319494841</v>
+        <v>1503.8786696034</v>
       </c>
       <c r="S20">
-        <v>0.02312205905667707</v>
+        <v>0.02321466775180821</v>
       </c>
       <c r="T20">
-        <v>0.01369259052326759</v>
+        <v>0.01411494091194667</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H21">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I21">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J21">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>40.81907680775399</v>
+        <v>57.74398943529999</v>
       </c>
       <c r="R21">
-        <v>244.914460846524</v>
+        <v>346.4639366118</v>
       </c>
       <c r="S21">
-        <v>0.005528349205052186</v>
+        <v>0.003565467232161564</v>
       </c>
       <c r="T21">
-        <v>0.004910727570727659</v>
+        <v>0.003251803547879072</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H22">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I22">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J22">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>7.697640096648</v>
+        <v>24.37283552733333</v>
       </c>
       <c r="R22">
-        <v>46.18584057988799</v>
+        <v>146.237013164</v>
       </c>
       <c r="S22">
-        <v>0.001042533193719805</v>
+        <v>0.00150492799817614</v>
       </c>
       <c r="T22">
-        <v>0.0009260624298334787</v>
+        <v>0.001372535458923542</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H23">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I23">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J23">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>18.81490553661</v>
+        <v>35.65043852185</v>
       </c>
       <c r="R23">
-        <v>75.25962214644001</v>
+        <v>142.6017540874</v>
       </c>
       <c r="S23">
-        <v>0.002548204815026369</v>
+        <v>0.002201276212553155</v>
       </c>
       <c r="T23">
-        <v>0.00150901461742868</v>
+        <v>0.001338416039516284</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H24">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I24">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J24">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>123.080288065612</v>
+        <v>657.5473504620334</v>
       </c>
       <c r="R24">
-        <v>738.481728393672</v>
+        <v>3945.2841027722</v>
       </c>
       <c r="S24">
-        <v>0.01666943169464003</v>
+        <v>0.04060099682398843</v>
       </c>
       <c r="T24">
-        <v>0.01480713948685113</v>
+        <v>0.0370292185912564</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H25">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I25">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J25">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>10.98037216644</v>
+        <v>7.0157793987</v>
       </c>
       <c r="R25">
-        <v>65.88223299864001</v>
+        <v>42.0946763922</v>
       </c>
       <c r="S25">
-        <v>0.001487131421991997</v>
+        <v>0.0004331971482879075</v>
       </c>
       <c r="T25">
-        <v>0.001320990589486937</v>
+        <v>0.0003950876370499433</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H26">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I26">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J26">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>763.8531093961668</v>
+        <v>4.981134265299</v>
       </c>
       <c r="R26">
-        <v>4583.118656377001</v>
+        <v>29.886805591794</v>
       </c>
       <c r="S26">
-        <v>0.1034527740545266</v>
+        <v>0.0003075657081473433</v>
       </c>
       <c r="T26">
-        <v>0.09189513378669194</v>
+        <v>0.0002805083305598445</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H27">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I27">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J27">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>182.6328148265623</v>
+        <v>0.7650366221819999</v>
       </c>
       <c r="R27">
-        <v>1643.695333439061</v>
+        <v>6.885329599637999</v>
       </c>
       <c r="S27">
-        <v>0.0247349537427822</v>
+        <v>4.723804216627238E-05</v>
       </c>
       <c r="T27">
-        <v>0.03295738423895581</v>
+        <v>6.462357796709593E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H28">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I28">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J28">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>34.440800437348</v>
+        <v>0.32291000236</v>
       </c>
       <c r="R28">
-        <v>309.967203936132</v>
+        <v>2.90619002124</v>
       </c>
       <c r="S28">
-        <v>0.004664504604450175</v>
+        <v>1.993843937024494E-05</v>
       </c>
       <c r="T28">
-        <v>0.006215086235125958</v>
+        <v>2.727660233355764E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H29">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I29">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J29">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>84.18169707831834</v>
+        <v>0.472324329039</v>
       </c>
       <c r="R29">
-        <v>505.09018246991</v>
+        <v>2.833945974234</v>
       </c>
       <c r="S29">
-        <v>0.01140118431180346</v>
+        <v>2.916419413709153E-05</v>
       </c>
       <c r="T29">
-        <v>0.01012745542335768</v>
+        <v>2.659854201171099E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H30">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I30">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J30">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>550.6861305304399</v>
+        <v>8.711691187978001</v>
       </c>
       <c r="R30">
-        <v>4956.175174773958</v>
+        <v>78.405220691802</v>
       </c>
       <c r="S30">
-        <v>0.07458241268633764</v>
+        <v>0.0005379131191177776</v>
       </c>
       <c r="T30">
-        <v>0.09937521039792814</v>
+        <v>0.0007358871959695904</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H31">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I31">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J31">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>49.12840841660667</v>
+        <v>0.092950421778</v>
       </c>
       <c r="R31">
-        <v>442.15567574946</v>
+        <v>0.836553796002</v>
       </c>
       <c r="S31">
-        <v>0.006653727101535861</v>
+        <v>5.739327786425117E-06</v>
       </c>
       <c r="T31">
-        <v>0.008865569064201745</v>
+        <v>7.851635666424395E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H32">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I32">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J32">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>4.100908965946</v>
+        <v>0.37169591332</v>
       </c>
       <c r="R32">
-        <v>24.605453795676</v>
+        <v>2.23017547992</v>
       </c>
       <c r="S32">
-        <v>0.0005554083677260512</v>
+        <v>2.295078002457279E-05</v>
       </c>
       <c r="T32">
-        <v>0.0004933587013484288</v>
+        <v>2.093173854952317E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H33">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I33">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J33">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>0.9805033698039999</v>
+        <v>0.05708759709333332</v>
       </c>
       <c r="R33">
-        <v>8.824530328235999</v>
+        <v>0.5137883738399999</v>
       </c>
       <c r="S33">
-        <v>0.0001327948951549351</v>
+        <v>3.524937552629356E-06</v>
       </c>
       <c r="T33">
-        <v>0.0001769387737735371</v>
+        <v>4.822259058910168E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H34">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I34">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J34">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>0.184902811248</v>
+        <v>0.02409578257777777</v>
       </c>
       <c r="R34">
-        <v>1.664125301232</v>
+        <v>0.2168620432</v>
       </c>
       <c r="S34">
-        <v>2.504239168340566E-05</v>
+        <v>1.487821053836576E-06</v>
       </c>
       <c r="T34">
-        <v>3.336702116183533E-05</v>
+        <v>2.035400187316485E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H35">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I35">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J35">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>0.45194746486</v>
+        <v>0.03524518985333333</v>
       </c>
       <c r="R35">
-        <v>2.71168478916</v>
+        <v>0.21147113912</v>
       </c>
       <c r="S35">
-        <v>6.120969907897361E-05</v>
+        <v>2.176253680119848E-06</v>
       </c>
       <c r="T35">
-        <v>5.437141282398813E-05</v>
+        <v>1.984802825914159E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H36">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I36">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J36">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>2.956476398845334</v>
+        <v>0.6500728228177778</v>
       </c>
       <c r="R36">
-        <v>26.608287589608</v>
+        <v>5.85065540536</v>
       </c>
       <c r="S36">
-        <v>0.0004004116513043569</v>
+        <v>4.013947375202715E-05</v>
       </c>
       <c r="T36">
-        <v>0.0005335170941907784</v>
+        <v>5.491244540664713E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H37">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I37">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J37">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>0.26375637944</v>
+        <v>0.00693602904</v>
       </c>
       <c r="R37">
-        <v>2.37380741496</v>
+        <v>0.06242426136</v>
       </c>
       <c r="S37">
-        <v>3.57219585703021E-05</v>
+        <v>4.282728731645792E-07</v>
       </c>
       <c r="T37">
-        <v>4.759670572309237E-05</v>
+        <v>5.858948453605516E-07</v>
       </c>
     </row>
   </sheetData>
